--- a/data.xlsx
+++ b/data.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -540,6 +540,38 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Alexandra Rebeca De Almeida</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>alexandrakawany14@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>938293800</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>C00000</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11ª</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>GSI</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -572,6 +572,102 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Joelson Nunes</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hoverbreed@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>956897062</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9875432</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12ª</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>FIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Joelson Nunes</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Benio@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>956897062</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9875432</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11ª</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CONT.E.GEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bento Caculo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Benio@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>956897062</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9875432</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10ª</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DP</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
